--- a/biology/Médecine/1353_en_santé_et_médecine/1353_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1353_en_santé_et_médecine/1353_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1353_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1353_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1353 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1353_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1353_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Entre autres obligations, une ordonnance du roi Jean le Bon rappelle aux apothicaires de Paris qu'ils doivent détenir l'Antidotaire de Nicolas dans leur officine[1].
-Fin de la peste noire, mais la maladie reste « endémique en Europe pendant trois siècles et opère vite des retours meurtriers[2] », dès 1363, et encore de 1399 à 1402.
-1352-1353 : fondation par Sofia de Arcangelis au mont Sion de Jérusalem, en Palestine, d'un « hospice pour femmes d'une capacité de cent lits[3],[4] ».
-1353-1354 : le juriste Bernard Rascas fonde à Avignon l'hôpital Sainte-Marthe ou « grand hôpital », confié à l'origine aux trinitaires et qui, dès le XVe siècle, deviendra le principal établissement de la ville[5],[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Entre autres obligations, une ordonnance du roi Jean le Bon rappelle aux apothicaires de Paris qu'ils doivent détenir l'Antidotaire de Nicolas dans leur officine.
+Fin de la peste noire, mais la maladie reste « endémique en Europe pendant trois siècles et opère vite des retours meurtriers », dès 1363, et encore de 1399 à 1402.
+1352-1353 : fondation par Sofia de Arcangelis au mont Sion de Jérusalem, en Palestine, d'un « hospice pour femmes d'une capacité de cent lits, ».
+1353-1354 : le juriste Bernard Rascas fonde à Avignon l'hôpital Sainte-Marthe ou « grand hôpital », confié à l'origine aux trinitaires et qui, dès le XVe siècle, deviendra le principal établissement de la ville,.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1353_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1353_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,15 +558,17 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>fl. Guillaume Robart, barbier de Blanche de France, duchesse d'Orléans, fille posthume de Charles IV[7].
-fl. Guilelmus Perii, médecin à Toulouse[8].
-fl. Guillaume Montelli, maître ès arts et maître en médecine de l'université de Toulouse[7].
-1352-1353 : fl. Jean Coffart, chirurgien de la ville de Saint-Quentin[7].
-1353-1360 : fl. Bernardus de Planis, barbier à Avignon[8].
-1353-1362 : fl. Raymondus Rubei, médecin, clerc du diocèse de Toulouse[8].
-1353-1419 : fl. Jean d'Avignon, médecin, actif en Andalousie et à Avignon[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>fl. Guillaume Robart, barbier de Blanche de France, duchesse d'Orléans, fille posthume de Charles IV.
+fl. Guilelmus Perii, médecin à Toulouse.
+fl. Guillaume Montelli, maître ès arts et maître en médecine de l'université de Toulouse.
+1352-1353 : fl. Jean Coffart, chirurgien de la ville de Saint-Quentin.
+1353-1360 : fl. Bernardus de Planis, barbier à Avignon.
+1353-1362 : fl. Raymondus Rubei, médecin, clerc du diocèse de Toulouse.
+1353-1419 : fl. Jean d'Avignon, médecin, actif en Andalousie et à Avignon.</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1353_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1353_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Martin Gazel (mort en 1418 au plus tard), maître régent à la faculté de médecine de Paris, nommé Premier médecin du roi Charles VI en 1403[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Martin Gazel (mort en 1418 au plus tard), maître régent à la faculté de médecine de Paris, nommé Premier médecin du roi Charles VI en 1403.</t>
         </is>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1353_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1353_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,10 +628,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vers 1353 : Ibn al-Kabir (en) (né à Khoy, en Iran, à une date inconnue), médecin à la cour de Bagdad, auteur du « compendium de Bagdad » (al-Jam' al-Baḡdādī), abrégé du « Livre complet des remèdes simples » (Kitāb al-jāmi' li-mufradāt al-adwiya) d'Ibn al-Baitar[10],[11].
-Albertino de San-Pietro (date de naissance inconnue), médecin à Ferrare[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vers 1353 : Ibn al-Kabir (en) (né à Khoy, en Iran, à une date inconnue), médecin à la cour de Bagdad, auteur du « compendium de Bagdad » (al-Jam' al-Baḡdādī), abrégé du « Livre complet des remèdes simples » (Kitāb al-jāmi' li-mufradāt al-adwiya) d'Ibn al-Baitar,.
+Albertino de San-Pietro (date de naissance inconnue), médecin à Ferrare.</t>
         </is>
       </c>
     </row>
